--- a/ModuloPilotoSodexo/Plantillas/Plantilla_Clientes.xlsx
+++ b/ModuloPilotoSodexo/Plantillas/Plantilla_Clientes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Codigocliente</t>
   </si>
@@ -27,15 +27,9 @@
     <t>Direccion</t>
   </si>
   <si>
-    <t>anulado</t>
-  </si>
-  <si>
     <t>TipoDocumento</t>
   </si>
   <si>
-    <t>CodigoCuenta</t>
-  </si>
-  <si>
     <t>Pais</t>
   </si>
   <si>
@@ -54,14 +48,14 @@
     <t>NroIdentifacion</t>
   </si>
   <si>
-    <t xml:space="preserve"> Anulado</t>
+    <t>Cuenta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,14 +73,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -120,14 +106,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,91 +414,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
